--- a/biology/Zoologie/Eurydema_retrorsum/Eurydema_retrorsum.xlsx
+++ b/biology/Zoologie/Eurydema_retrorsum/Eurydema_retrorsum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurydema retrorsum est une espèce fossile d'insectes hétéroptères (les punaises) de la famille des Pentatomidae et du genre Eurydema.
 </t>
@@ -511,14 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eurydema retrorsum est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype, référencé R912, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), faisait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle[note 1] et a été trouvée dans des marnes en plaquettes d'âge sannoisien moyen du gisement de Kleinkembs[1]. Cet holotype est complété par un paratype R933[1].
-En 1937, Nicolas Théobald suggère que l'espèce Pentatoma punctatum Förster 1891 soit aussi un synonyme de cette espèce[1], et Paleobiology Database, en 2022, l'a joint dans les collections, mais a laissé l'espèce distincte[3].
-Étymologie
-L'épithète spécifique retrorsum signifie en latin « en arrière ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eurydema retrorsum est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -544,20 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Empreinte assez effacée. Tête et pattes manquent. Pronotum hexagonal à coins latéraux arrondis, déprimé dans la moitié antérieure par un sillon transversal. La moitié postérieure porte quatre renflements latéraux. On voit aussi par transparence la crête du mésosternum ; scutellum de forme triangulaire, contracté à l'apex dont la pointe extrême n'est pas visible. Abdomen ovoïde, légèrement étiré vers l'arrière ; segmentation assez nette. Les élytres sont écartés ; on voit encore la corie de l'élytre gauche. La corie, le scutellum et le pronotum sont ornés de ponctuations brunes. L'abdomen est de teinte brun pâle. »[1].
-Dimensions
-La longueur totale, sans la tête, est de 10 mm[1].
-Affinités
-« À cette espèce appartient probablement Pentatoma punctatum que Förster a décrit de Brunnstatt, cet échantillon est dans un très mauvais état de conservation. 
-Notre insecte semble bien appartenir au g. Eurydema, surtout en ce qui concerne la conformation du pronotum dont les bords antérieurs et antéro-latéraux sont relevés et renflés, les angles latéraux sont arrondis. Mais le scutellum semble plus large que dans le g. Eurydema. 
-Eurydema lituriferum Walk. des Indes a une longueur de 10 mmm. Le corps est oblong et porte une ornementation semblable[1]. »
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype, référencé R912, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), faisait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle[note 1] et a été trouvée dans des marnes en plaquettes d'âge sannoisien moyen du gisement de Kleinkembs. Cet holotype est complété par un paratype R933.
+En 1937, Nicolas Théobald suggère que l'espèce Pentatoma punctatum Förster 1891 soit aussi un synonyme de cette espèce, et Paleobiology Database, en 2022, l'a joint dans les collections, mais a laissé l'espèce distincte.
 </t>
         </is>
       </c>
@@ -583,13 +591,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique retrorsum signifie en latin « en arrière ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Empreinte assez effacée. Tête et pattes manquent. Pronotum hexagonal à coins latéraux arrondis, déprimé dans la moitié antérieure par un sillon transversal. La moitié postérieure porte quatre renflements latéraux. On voit aussi par transparence la crête du mésosternum ; scutellum de forme triangulaire, contracté à l'apex dont la pointe extrême n'est pas visible. Abdomen ovoïde, légèrement étiré vers l'arrière ; segmentation assez nette. Les élytres sont écartés ; on voit encore la corie de l'élytre gauche. La corie, le scutellum et le pronotum sont ornés de ponctuations brunes. L'abdomen est de teinte brun pâle. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale, sans la tête, est de 10 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« À cette espèce appartient probablement Pentatoma punctatum que Förster a décrit de Brunnstatt, cet échantillon est dans un très mauvais état de conservation. 
+Notre insecte semble bien appartenir au g. Eurydema, surtout en ce qui concerne la conformation du pronotum dont les bords antérieurs et antéro-latéraux sont relevés et renflés, les angles latéraux sont arrondis. Mais le scutellum semble plus large que dans le g. Eurydema. 
+Eurydema lituriferum Walk. des Indes a une longueur de 10 mmm. Le corps est oblong et porte une ornementation semblable. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurydema_retrorsum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les espèces Eurydema vivent dans les régions paléarctique et orientale, où on les trouve surtout sur les Crucifères. »[1].
+« Les espèces Eurydema vivent dans les régions paléarctique et orientale, où on les trouve surtout sur les Crucifères. ».
 </t>
         </is>
       </c>
